--- a/RiverArchitect/ProjectMaker/RRR_exp_v00/RRR_exp_assessment_v00.xlsx
+++ b/RiverArchitect/ProjectMaker/RRR_exp_v00/RRR_exp_assessment_v00.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RiverArchitect4Publishing\ProjectMaker\RRR_exp_v00\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\clones\RiverArchitect\ProjectMaker\RRR_exp_v00\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -110,10 +110,6 @@
     <t>Total costs:</t>
   </si>
   <si>
-    <t>Project return
-(US $ per ac net gain in WUA)</t>
-  </si>
-  <si>
     <t>Automatic Calculation</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
   </si>
   <si>
     <t>Site Name</t>
-  </si>
-  <si>
-    <t>Net gain in WUA (ac/yr):</t>
   </si>
   <si>
     <t>Layer</t>
@@ -484,6 +477,13 @@
   </si>
   <si>
     <t>Generated  with the RiverArchitect's ModifyTerrain module</t>
+  </si>
+  <si>
+    <t>Project return
+(US $ per ac net gain in AUA)</t>
+  </si>
+  <si>
+    <t>Net gain in AUA (ac/yr):</t>
   </si>
 </sst>
 </file>
@@ -1311,21 +1311,39 @@
     <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1338,12 +1356,6 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1370,18 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1726,16 +1726,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="142"/>
     </row>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="75" t="s">
@@ -1753,35 +1753,35 @@
         <f>G60</f>
         <v>1359426.2435897156</v>
       </c>
-      <c r="H2" s="143" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="144" t="str">
+      <c r="H2" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="148" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
         <v/>
       </c>
       <c r="J2" s="81"/>
-      <c r="K2" s="137" t="s">
-        <v>5</v>
+      <c r="K2" s="143" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="79" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="80"/>
-      <c r="E3" s="142" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="133"/>
+      <c r="E3" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="134"/>
       <c r="G3" s="102"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="142"/>
       <c r="J3" s="81"/>
-      <c r="K3" s="130"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="82"/>
@@ -1795,28 +1795,28 @@
     </row>
     <row r="5" spans="2:11" s="96" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="E5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="F5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="G5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="I5" s="49" t="s">
         <v>14</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="96" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
@@ -1830,17 +1830,17 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="2:11" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="146" t="s">
-        <v>17</v>
+      <c r="B7" s="150" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="108">
         <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="87">
         <f>from_geodata!C4</f>
@@ -1852,45 +1852,45 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="96" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="147"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="110">
         <f>AVERAGE(10, 6*1.65, 9*1.296)</f>
         <v>10.521333333333333</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="111">
         <f>D8/2*MIN(terraforming_volumes!C5,terraforming_volumes!C6)+'costs (U.S. Cust.)'!D8*(MAX(terraforming_volumes!C5,terraforming_volumes!C6)-MIN(terraforming_volumes!C5,terraforming_volumes!C6))</f>
         <v>756806.86247710744</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="151"/>
+      <c r="C9" s="61" t="s">
         <v>24</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="147"/>
-      <c r="C9" s="61" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="112">
         <v>1200</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="113">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="138" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
+      <c r="B10" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
       <c r="G10" s="114">
         <f>SUM(G7:G9)</f>
         <v>757940.37947263906</v>
@@ -1928,17 +1928,17 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="2:11" s="96" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="145" t="s">
-        <v>30</v>
+      <c r="B12" s="149" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="108">
         <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="87">
         <f>F13*log_length*ft2yd</f>
@@ -1949,23 +1949,23 @@
         <v>1813.333333333333</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="139"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="116">
         <f>AVERAGE(600,1000, 300, 1200)</f>
         <v>775</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="86">
         <f>from_geodata!C15/square_yd2acre/ft2yd^2/log_length^2</f>
@@ -1976,23 +1976,23 @@
         <v>2108</v>
       </c>
       <c r="H13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="130"/>
+      <c r="C14" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="139"/>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="116">
         <f>(1.65*15+75)/2</f>
         <v>49.875</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="52"/>
       <c r="G14" s="111">
@@ -2001,20 +2001,20 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="139"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="116">
         <f>AVERAGE(5000,20000, 30000, 100000)</f>
         <v>38750</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="111">
@@ -2023,20 +2023,20 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="139"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="117">
         <f>AVERAGE(120,230,10,160)</f>
         <v>130</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="86">
         <f>from_geodata!C13 / square_yd2acre</f>
@@ -2048,17 +2048,17 @@
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="138" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
+      <c r="B17" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="114">
         <f>SUM(G12:G16)</f>
         <v>10782.444444444445</v>
@@ -2077,18 +2077,18 @@
       <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="145" t="s">
-        <v>47</v>
+      <c r="B19" s="149" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="110">
         <f>AVERAGE(120, 300)</f>
         <v>210</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19" s="52"/>
       <c r="G19" s="111">
@@ -2097,20 +2097,20 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="130"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="119">
         <f>20*1.65</f>
         <v>33</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="120">
@@ -2119,20 +2119,20 @@
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="139"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="110">
         <f>AVERAGE(73059, 71836)</f>
         <v>72447.5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="111">
@@ -2140,23 +2140,23 @@
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="130"/>
+      <c r="C22" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="139"/>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="D22" s="110">
         <f>AVERAGE(73059, 71836)</f>
         <v>72447.5</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="111">
@@ -2164,22 +2164,22 @@
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I22" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="130"/>
+      <c r="C23" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="139"/>
-      <c r="C23" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D23" s="110">
         <v>40598</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="86">
         <f>from_geodata!C8</f>
@@ -2190,22 +2190,22 @@
         <v>19455.5383379247</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="139"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="110">
         <v>40598</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="86">
         <f>from_geodata!C7</f>
@@ -2216,23 +2216,23 @@
         <v>68735.135445362714</v>
       </c>
       <c r="H24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="131"/>
+      <c r="C25" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="130"/>
-      <c r="C25" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="D25" s="121">
         <f>AVERAGE(35000,45000)</f>
         <v>40000</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" s="88">
         <f>from_geodata!C5</f>
@@ -2244,20 +2244,20 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="130"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="122">
         <f>AVERAGE(35000,45000)</f>
         <v>40000</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F26" s="88">
         <f>from_geodata!C6</f>
@@ -2269,17 +2269,17 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="129" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="138" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="114">
         <f>SUM(G19:G26)</f>
         <v>195422.07874196512</v>
@@ -2298,18 +2298,18 @@
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="148" t="s">
-        <v>64</v>
+      <c r="B29" s="152" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="119">
         <f>(60+100)/2</f>
         <v>80</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="120">
@@ -2317,23 +2317,23 @@
         <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="130"/>
+      <c r="B30" s="131"/>
       <c r="C30" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="119">
         <f>(25+50)/2</f>
         <v>37.5</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="120">
@@ -2341,23 +2341,23 @@
         <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="130"/>
+      <c r="B31" s="131"/>
       <c r="C31" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="119">
         <f>(3+12)/2</f>
         <v>7.5</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="120">
@@ -2365,23 +2365,23 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="139"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="110">
         <f>(10+20)/2</f>
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F32" s="86">
         <f>from_geodata!C16*square_yd2acre</f>
@@ -2392,23 +2392,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="139"/>
+      <c r="B33" s="130"/>
       <c r="C33" s="64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D33" s="117">
         <f>(140+175)/2</f>
         <v>157.5</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F33" s="86">
         <f>from_geodata!C12/square_yd2acre</f>
@@ -2419,20 +2419,20 @@
         <v>19687.499999999996</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="138" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="133"/>
+      <c r="B34" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="134"/>
       <c r="G34" s="114">
         <f>SUM(G29:G33)</f>
         <v>19687.499999999996</v>
@@ -2451,18 +2451,18 @@
       <c r="I35" s="27"/>
     </row>
     <row r="36" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="145" t="s">
-        <v>76</v>
+      <c r="B36" s="149" t="s">
+        <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="110">
         <f>AVERAGE(2500, 5000)</f>
         <v>3750</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F36" s="52"/>
       <c r="G36" s="111">
@@ -2471,20 +2471,20 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="139"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="117">
         <f>AVERAGE(1000, 2000)</f>
         <v>1500</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="118">
@@ -2493,17 +2493,17 @@
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
+      <c r="B38" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
       <c r="G38" s="114">
         <f>SUM(G36:G37)</f>
         <v>0</v>
@@ -2522,17 +2522,17 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="145" t="s">
-        <v>81</v>
+      <c r="B40" s="149" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="110">
         <v>250</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" s="52"/>
       <c r="G40" s="111">
@@ -2541,20 +2541,20 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="139"/>
+      <c r="B41" s="130"/>
       <c r="C41" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D41" s="110">
         <f>1700*0.9071847</f>
         <v>1542.21399</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="111">
@@ -2563,19 +2563,19 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="130"/>
+      <c r="B42" s="131"/>
       <c r="C42" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" s="119">
         <v>50</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="120">
@@ -2584,19 +2584,19 @@
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="130"/>
+      <c r="B43" s="131"/>
       <c r="C43" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="119">
         <v>150</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" s="53">
         <f>463/3</f>
@@ -2607,22 +2607,22 @@
         <v>23150</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="130"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" s="119">
         <v>300</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="120">
@@ -2631,19 +2631,19 @@
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="130"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="119">
         <v>1000</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="120">
@@ -2652,19 +2652,19 @@
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="130"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="119">
         <v>1500</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="120">
@@ -2673,20 +2673,20 @@
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="139"/>
+      <c r="B47" s="130"/>
       <c r="C47" s="64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="117">
         <f>AVERAGE(3.29, 4.21, 5.65, 2.57, 2.77)</f>
         <v>3.6980000000000004</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="66"/>
       <c r="G47" s="118">
@@ -2695,17 +2695,17 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
+      <c r="B48" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
       <c r="G48" s="114">
         <f>SUM(G40:G47)</f>
         <v>23150</v>
@@ -2724,13 +2724,13 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="2:9" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="140" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
+      <c r="B50" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
       <c r="G50" s="125">
         <f>SUM(G48,G38,G34,G27,G17,G10)</f>
         <v>1006982.4026590486</v>
@@ -2739,16 +2739,16 @@
       <c r="I50" s="38"/>
     </row>
     <row r="52" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="141" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="130"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="136"/>
+      <c r="B52" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="131"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="142"/>
     </row>
     <row r="53" spans="2:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
@@ -2761,10 +2761,10 @@
       <c r="I53" s="32"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="152" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="130"/>
+      <c r="B54" s="138" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="131"/>
       <c r="D54" s="31"/>
       <c r="E54" s="28"/>
       <c r="F54" s="55"/>
@@ -2773,15 +2773,15 @@
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="130"/>
+      <c r="B55" s="136" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="131"/>
       <c r="D55" s="34">
         <v>0.1</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F55" s="91">
         <v>1</v>
@@ -2791,19 +2791,19 @@
         <v>100698.24026590487</v>
       </c>
       <c r="I55" s="93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="150" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="130"/>
+      <c r="B56" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="131"/>
       <c r="D56" s="35">
         <v>0.1</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F56" s="91">
         <v>1</v>
@@ -2813,14 +2813,14 @@
         <v>100698.24026590487</v>
       </c>
       <c r="I56" s="93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="130"/>
+      <c r="B57" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="131"/>
       <c r="D57" s="36"/>
       <c r="E57" s="28"/>
       <c r="F57" s="55"/>
@@ -2829,16 +2829,16 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="2:9" s="94" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="151" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="139"/>
+      <c r="B58" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="130"/>
       <c r="D58" s="58">
         <f>AVERAGE(0.1,0.2)</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F58" s="60">
         <v>1</v>
@@ -2849,17 +2849,17 @@
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="149" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="133"/>
+      <c r="B60" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="131"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="134"/>
       <c r="G60" s="128">
         <f>G58+G56+G55+G50</f>
         <v>1359426.2435897156</v>
@@ -2869,15 +2869,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="B48:F48"/>
@@ -2894,6 +2885,15 @@
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:F11 B17:F18 B27:F28 B34:F35 B38:F39 B48:F49">
     <cfRule type="expression" dxfId="4" priority="5">
@@ -2944,20 +2944,20 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="98" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="98">
         <v>5.1523499796893164</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="98">
         <v>0.94295224977043157</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="98">
         <v>1.737832874196511</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="98" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="98">
         <v>1.6930670339761249</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="98">
         <v>0.47922405876951329</v>
@@ -2997,20 +2997,20 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" s="98">
         <v>2.5826446280991729E-2</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="98">
         <v>1.090449954086318E-2</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="98">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C15" s="98">
         <v>3.9026629935720841E-2</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="98">
         <v>0</v>
@@ -3075,10 +3075,10 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="154"/>
       <c r="E2" s="154"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="155" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="154"/>
       <c r="D3" s="154"/>
@@ -3111,24 +3111,24 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="98" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="56">
         <v>129439.4807019037</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="56">
         <v>115017.56313797781</v>
       </c>
       <c r="D6" s="98" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
